--- a/Marketing/gt.roomme.xlsx
+++ b/Marketing/gt.roomme.xlsx
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="B606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="B609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="B612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="B616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="B626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="B662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="B664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B672" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B683" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B698" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B732" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B733" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B734" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B736" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B738" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="B740" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B741" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="B743" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="B744" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B745" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B747" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="B748" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="B749" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="B750" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="B752" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B754" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B755" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B757" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="B758" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B760" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="B761" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="B762" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="B764" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B765" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B766" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="B769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="B770" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="B772" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B773" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B774" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="B776" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B777" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B778" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="B779" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B782" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="B783" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="B784" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="B785" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B787" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="B788" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B790" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B792" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="B794" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="B795" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B796" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="B797" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="B798" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="B799" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="B800" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="B801" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="B802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="B803" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="B804" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="B805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="B806" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="B807" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="B809" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="B810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B811" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="B812" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="B813" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B814" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B815" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="B818" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B819" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="B821" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="B822" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B823" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B824" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="B825" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="B826" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="B827" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B828" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B829" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="B830" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B831" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B832" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="B833" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="B834" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="B835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="B836" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="B837" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="B838" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="B839" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="B840" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="B841" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="B842" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="B843" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="B845" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B846" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="B847" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="B848" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B850" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -8942,7 +8942,7 @@
         </is>
       </c>
       <c r="B851" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="B852" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="B853" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="B854" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="B855" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="B856" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="B857" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="B858" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859">
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="B859" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="B860" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="B861" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="B862" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="B863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="B864" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B865" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="B866" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="B868" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869">
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="B869" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="B870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="B871" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="B872" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="B873" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="B874" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B875" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="B876" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877">
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B877" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="B878" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="B879" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="B880" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="B881" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="B882" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B883" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="B884" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="B885" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="B886" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B888" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="B889" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="B890" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="B891" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B892" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="B893" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B894" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="B895" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="B896" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="B897" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B898" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="B899" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="B900" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="B901" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B902" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="B903" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="B904" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="B905" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="B906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="B907" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="B908" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="B909" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B910" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -9542,7 +9542,7 @@
         </is>
       </c>
       <c r="B911" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="B912" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -9562,7 +9562,7 @@
         </is>
       </c>
       <c r="B913" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914">
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="B914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="B915" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="B916" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917">
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="B917" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="B918" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="B919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="B920" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="B921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="B922" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923">
@@ -9662,7 +9662,7 @@
         </is>
       </c>
       <c r="B923" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="B924" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925">
@@ -9682,7 +9682,7 @@
         </is>
       </c>
       <c r="B925" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="B926" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="B927" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="B928" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="B929" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="B930" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931">
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="B931" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="B932" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="B933" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="B934" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="B935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="B936" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937">
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="B937" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="B938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="B939" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="B940" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="B941" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="B942" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B943" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="B944" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="B945" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="B946" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="B947" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="B948" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949">
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="B949" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="B951" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="B952" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="B953" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="B954" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="B955" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="B956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="B957" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="B958" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="B959" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="B960" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961">
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="B961" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962">
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="B962" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="B964" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="B965" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="B966" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="B967" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="B968" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="B969" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="B970" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971">
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="B971" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="B972" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973">
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="B973" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="B974" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="B975" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="B976" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977">
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="B977" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978">
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="B978" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="B979" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="B980" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981">
@@ -10242,7 +10242,7 @@
         </is>
       </c>
       <c r="B981" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="B982" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="B983" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="B984" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="B985" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="B986" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="B987" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="B988" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989">
@@ -10322,7 +10322,7 @@
         </is>
       </c>
       <c r="B989" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="B990" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="B991" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992">
@@ -10352,7 +10352,7 @@
         </is>
       </c>
       <c r="B992" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="B993" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="B994" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995">
@@ -10382,7 +10382,7 @@
         </is>
       </c>
       <c r="B995" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="B996" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="B997" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="B998" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="B999" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="B1000" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B1001" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="B1002" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003">
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="B1003" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="B1004" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="B1005" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="B1006" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="B1007" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B1008" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="B1009" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="B1010" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="B1011" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="B1012" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="B1013" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="B1014" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="B1015" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="B1016" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="B1017" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018">
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="B1018" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="B1019" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="B1020" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021">
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="B1021" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="B1022" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023">
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="B1023" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024">
@@ -10672,7 +10672,7 @@
         </is>
       </c>
       <c r="B1024" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="B1025" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="B1026" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027">
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="B1027" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B1028" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="B1029" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="B1030" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="B1031" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="B1032" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="B1033" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034">
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="B1034" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035">
@@ -10782,7 +10782,7 @@
         </is>
       </c>
       <c r="B1035" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="B1036" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037">
@@ -10802,7 +10802,7 @@
         </is>
       </c>
       <c r="B1037" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="B1038" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="B1039" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="B1040" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="B1041" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="B1042" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043">
@@ -10862,7 +10862,7 @@
         </is>
       </c>
       <c r="B1043" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="B1044" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="B1045" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="B1046" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="B1047" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="B1048" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="B1049" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="B1050" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -10942,7 +10942,7 @@
         </is>
       </c>
       <c r="B1051" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="B1052" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -10962,7 +10962,7 @@
         </is>
       </c>
       <c r="B1053" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="B1054" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B1055" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="B1056" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -11002,7 +11002,7 @@
         </is>
       </c>
       <c r="B1057" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="B1058" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -11022,7 +11022,7 @@
         </is>
       </c>
       <c r="B1059" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="B1060" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -11042,7 +11042,7 @@
         </is>
       </c>
       <c r="B1061" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="B1062" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="B1063" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="B1064" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="B1065" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066">
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="B1066" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067">
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="B1067" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068">
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="B1068" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069">
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="B1069" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070">
@@ -11132,7 +11132,7 @@
         </is>
       </c>
       <c r="B1070" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="B1071" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072">
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="B1072" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -11162,7 +11162,7 @@
         </is>
       </c>
       <c r="B1073" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="B1074" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="B1075" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076">
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="B1076" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="B1077" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078">
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="B1078" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -11222,7 +11222,7 @@
         </is>
       </c>
       <c r="B1079" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="B1080" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B1081" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082">
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="B1082" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
@@ -11262,7 +11262,7 @@
         </is>
       </c>
       <c r="B1083" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="B1084" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -11282,7 +11282,7 @@
         </is>
       </c>
       <c r="B1085" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -11292,7 +11292,7 @@
         </is>
       </c>
       <c r="B1086" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="B1087" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088">
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="B1088" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B1089" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="B1090" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="B1091" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -11352,7 +11352,7 @@
         </is>
       </c>
       <c r="B1092" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="B1093" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -11372,7 +11372,7 @@
         </is>
       </c>
       <c r="B1094" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="B1095" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="B1096" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B1097" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098">
@@ -11412,7 +11412,7 @@
         </is>
       </c>
       <c r="B1098" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099">
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="B1099" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="B1100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="B1101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="B1102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103">
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="B1103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -11472,7 +11472,7 @@
         </is>
       </c>
       <c r="B1104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="B1105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106">
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="B1106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="B1107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108">
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="B1108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="B1109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="B1110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111">
@@ -11542,7 +11542,7 @@
         </is>
       </c>
       <c r="B1111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112">
@@ -11552,7 +11552,7 @@
         </is>
       </c>
       <c r="B1112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="B1113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114">
@@ -11572,7 +11572,7 @@
         </is>
       </c>
       <c r="B1114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="B1115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B1116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="B1117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -11612,7 +11612,7 @@
         </is>
       </c>
       <c r="B1118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="B1119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -11632,7 +11632,7 @@
         </is>
       </c>
       <c r="B1120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="B1121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="B1122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="B1123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -11672,7 +11672,7 @@
         </is>
       </c>
       <c r="B1124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="B1125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="B1126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="B1127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -11712,7 +11712,7 @@
         </is>
       </c>
       <c r="B1128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="B1129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="B1130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -11742,7 +11742,7 @@
         </is>
       </c>
       <c r="B1131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="B1132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="B1133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134">
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="B1134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135">
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="B1135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="B1136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="B1137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138">
@@ -11812,7 +11812,7 @@
         </is>
       </c>
       <c r="B1138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139">
@@ -11822,7 +11822,7 @@
         </is>
       </c>
       <c r="B1139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="B1140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="B1141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142">
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="B1142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="B1143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="B1144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="B1145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146">
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="B1146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="B1147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148">
@@ -11912,7 +11912,7 @@
         </is>
       </c>
       <c r="B1148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="B1149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="B1150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151">
@@ -11942,7 +11942,7 @@
         </is>
       </c>
       <c r="B1151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152">
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="B1152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="B1153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154">
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="B1154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155">
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="B1155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156">
@@ -11992,7 +11992,7 @@
         </is>
       </c>
       <c r="B1156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="B1157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="B1158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="B1159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -12032,7 +12032,7 @@
         </is>
       </c>
       <c r="B1160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="B1161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="B1162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163">
@@ -12062,7 +12062,7 @@
         </is>
       </c>
       <c r="B1163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164">
@@ -12072,7 +12072,7 @@
         </is>
       </c>
       <c r="B1164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="B1165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166">
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="B1166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B1167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="B1168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="B1169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="B1170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171">
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="B1171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172">
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="B1172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="B1173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174">
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="B1174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="B1175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176">
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="B1176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="B1177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="B1178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -12222,7 +12222,7 @@
         </is>
       </c>
       <c r="B1179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180">
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="B1180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="B1181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="B1182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183">
@@ -12262,7 +12262,7 @@
         </is>
       </c>
       <c r="B1183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184">
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="B1184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B1185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="B1186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187">
@@ -12302,7 +12302,7 @@
         </is>
       </c>
       <c r="B1187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="B1188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="B1189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="B1190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191">
@@ -12342,7 +12342,7 @@
         </is>
       </c>
       <c r="B1191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="B1192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="B1193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="B1194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195">
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="B1195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196">
@@ -12392,7 +12392,7 @@
         </is>
       </c>
       <c r="B1196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="B1197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="B1198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199">
@@ -12422,7 +12422,7 @@
         </is>
       </c>
       <c r="B1199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="B1200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="B1201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202">
@@ -12452,7 +12452,7 @@
         </is>
       </c>
       <c r="B1202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203">
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="B1203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204">
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="B1204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="B1205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206">
@@ -12492,7 +12492,7 @@
         </is>
       </c>
       <c r="B1206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207">
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="B1207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="B1208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="B1209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="B1210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211">
@@ -12542,7 +12542,7 @@
         </is>
       </c>
       <c r="B1211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212">
@@ -12552,7 +12552,7 @@
         </is>
       </c>
       <c r="B1212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="B1213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="B1214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="B1215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216">
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="B1216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="B1217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="B1218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219">
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="B1219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="B1220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="B1221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="B1222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="B1223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="B1224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="B1225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226">
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="B1226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="B1227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="B1228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229">
@@ -12722,7 +12722,7 @@
         </is>
       </c>
       <c r="B1229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="B1230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231">
@@ -12742,7 +12742,7 @@
         </is>
       </c>
       <c r="B1231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -12752,7 +12752,7 @@
         </is>
       </c>
       <c r="B1232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="B1233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234">
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="B1234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235">
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="B1235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="B1236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="B1237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="B1238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239">
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="B1239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="B1240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="B1241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242">
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="B1242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243">
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="B1243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244">
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="B1244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B1245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246">
@@ -12892,7 +12892,7 @@
         </is>
       </c>
       <c r="B1246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247">
@@ -12902,7 +12902,7 @@
         </is>
       </c>
       <c r="B1247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248">
@@ -12912,7 +12912,7 @@
         </is>
       </c>
       <c r="B1248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="B1249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250">
@@ -12932,7 +12932,7 @@
         </is>
       </c>
       <c r="B1250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="B1251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="B1252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="B1253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254">
@@ -12972,7 +12972,7 @@
         </is>
       </c>
       <c r="B1254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="B1255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="B1256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258">
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="B1258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259">
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="B1259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260">
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="B1260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261">
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="B1261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262">
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="B1262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263">
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="B1263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264">
@@ -13072,7 +13072,7 @@
         </is>
       </c>
       <c r="B1264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="B1265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="B1266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267">
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="B1267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="B1268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269">
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="B1269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270">
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="B1270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271">
@@ -13142,7 +13142,7 @@
         </is>
       </c>
       <c r="B1271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272">
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="B1272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="B1273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274">
@@ -13172,7 +13172,7 @@
         </is>
       </c>
       <c r="B1274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="B1275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276">
@@ -13192,7 +13192,7 @@
         </is>
       </c>
       <c r="B1276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="B1277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278">
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="B1278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="B1279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="B1280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281">
@@ -13242,7 +13242,7 @@
         </is>
       </c>
       <c r="B1281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1282">
@@ -13252,7 +13252,7 @@
         </is>
       </c>
       <c r="B1282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283">
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="B1283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284">
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="B1284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="B1285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B1286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="B1287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="B1288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289">
@@ -13322,7 +13322,7 @@
         </is>
       </c>
       <c r="B1289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="B1290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="B1291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="B1292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293">
@@ -13362,7 +13362,7 @@
         </is>
       </c>
       <c r="B1293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294">
@@ -13372,7 +13372,7 @@
         </is>
       </c>
       <c r="B1294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -13382,7 +13382,7 @@
         </is>
       </c>
       <c r="B1295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296">
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="B1296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297">
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="B1297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298">
@@ -13412,7 +13412,7 @@
         </is>
       </c>
       <c r="B1298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299">
@@ -13422,7 +13422,7 @@
         </is>
       </c>
       <c r="B1299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B1300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="B1301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302">
@@ -13452,7 +13452,7 @@
         </is>
       </c>
       <c r="B1302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303">
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="B1303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304">
@@ -13472,7 +13472,7 @@
         </is>
       </c>
       <c r="B1304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="B1305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="B1306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -13502,7 +13502,7 @@
         </is>
       </c>
       <c r="B1307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -13512,7 +13512,7 @@
         </is>
       </c>
       <c r="B1308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="B1309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310">
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="B1310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="B1311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="B1312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
@@ -13562,7 +13562,7 @@
         </is>
       </c>
       <c r="B1313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314">
@@ -13572,7 +13572,7 @@
         </is>
       </c>
       <c r="B1314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315">
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="B1315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316">
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="B1316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="B1317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="B1318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319">
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="B1319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320">
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="B1320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321">
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="B1321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322">
@@ -13652,7 +13652,7 @@
         </is>
       </c>
       <c r="B1322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323">
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="B1323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324">
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="B1324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325">
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="B1325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326">
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="B1326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327">
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="B1327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="B1328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329">
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="B1329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330">
@@ -13732,7 +13732,7 @@
         </is>
       </c>
       <c r="B1330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="B1331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332">
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="B1332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333">
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="B1333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="B1334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="B1335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336">
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="B1336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337">
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="B1337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338">
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="B1338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339">
@@ -13822,7 +13822,7 @@
         </is>
       </c>
       <c r="B1339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="B1340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342">

--- a/Marketing/gt.roomme.xlsx
+++ b/Marketing/gt.roomme.xlsx
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="B1342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343">
@@ -13862,7 +13862,7 @@
         </is>
       </c>
       <c r="B1343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="B1344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345">
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="B1345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="B1346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347">
@@ -13902,7 +13902,7 @@
         </is>
       </c>
       <c r="B1347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="B1348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349">
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="B1349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="B1350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="B1351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1352">
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="B1352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1353">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="B1353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="B1354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355">
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="B1355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1356">
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="B1356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="B1357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358">
@@ -14012,7 +14012,7 @@
         </is>
       </c>
       <c r="B1358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1359">
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="B1359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1360">
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="B1360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1361">
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="B1361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362">
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="B1362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363">
@@ -14062,7 +14062,7 @@
         </is>
       </c>
       <c r="B1363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364">
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="B1364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="B1365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366">
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="B1366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1367">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="B1367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368">
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="B1368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369">
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="B1369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="B1370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1371">
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="B1371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372">
@@ -14152,7 +14152,7 @@
         </is>
       </c>
       <c r="B1372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="B1373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="B1374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -14182,7 +14182,7 @@
         </is>
       </c>
       <c r="B1375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376">
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="B1376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1377">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="B1377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1378">
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="B1378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1379">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B1379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1380">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="B1380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381">
@@ -14242,7 +14242,7 @@
         </is>
       </c>
       <c r="B1381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382">
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="B1382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="B1383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1384">
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="B1384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1385">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="B1385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1386">
@@ -14292,7 +14292,7 @@
         </is>
       </c>
       <c r="B1386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1387">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="B1387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388">
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="B1388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
@@ -14322,7 +14322,7 @@
         </is>
       </c>
       <c r="B1389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1390">
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="B1390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391">
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="B1391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1392">
@@ -14352,7 +14352,7 @@
         </is>
       </c>
       <c r="B1392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393">
@@ -14362,7 +14362,7 @@
         </is>
       </c>
       <c r="B1393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1394">
@@ -14372,7 +14372,7 @@
         </is>
       </c>
       <c r="B1394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1395">
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="B1395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396">
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="B1396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1397">
@@ -14402,7 +14402,7 @@
         </is>
       </c>
       <c r="B1397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="B1398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399">
@@ -14422,7 +14422,7 @@
         </is>
       </c>
       <c r="B1399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1400">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="B1400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401">
@@ -14442,7 +14442,7 @@
         </is>
       </c>
       <c r="B1401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1402">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="B1402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403">
@@ -14462,7 +14462,7 @@
         </is>
       </c>
       <c r="B1403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404">
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="B1404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="B1405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406">
@@ -14492,7 +14492,7 @@
         </is>
       </c>
       <c r="B1406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1407">
@@ -14502,7 +14502,7 @@
         </is>
       </c>
       <c r="B1407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1408">
@@ -14512,7 +14512,7 @@
         </is>
       </c>
       <c r="B1408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409">
@@ -14522,7 +14522,7 @@
         </is>
       </c>
       <c r="B1409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1410">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="B1410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411">
@@ -14542,7 +14542,7 @@
         </is>
       </c>
       <c r="B1411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1412">
@@ -14552,7 +14552,7 @@
         </is>
       </c>
       <c r="B1412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1413">
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="B1413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="B1414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415">
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="B1415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="B1416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="B1417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1418">
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="B1418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1419">
@@ -14622,7 +14622,7 @@
         </is>
       </c>
       <c r="B1419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="B1420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -14642,7 +14642,7 @@
         </is>
       </c>
       <c r="B1421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422">
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="B1422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1423">
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="B1423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="B1424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="B1425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="B1426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -14702,7 +14702,7 @@
         </is>
       </c>
       <c r="B1427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="B1428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -14722,7 +14722,7 @@
         </is>
       </c>
       <c r="B1429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -14732,7 +14732,7 @@
         </is>
       </c>
       <c r="B1430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431">
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="B1431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1432">
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="B1432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1433">
@@ -14762,7 +14762,7 @@
         </is>
       </c>
       <c r="B1433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1434">
@@ -14772,7 +14772,7 @@
         </is>
       </c>
       <c r="B1434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435">
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="B1435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -14792,7 +14792,7 @@
         </is>
       </c>
       <c r="B1436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437">
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="B1437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438">
@@ -14812,7 +14812,7 @@
         </is>
       </c>
       <c r="B1438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1439">
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="B1439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="B1440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="B1441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442">
